--- a/public/template/san pham.xlsx
+++ b/public/template/san pham.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Good\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Good\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,16 +62,16 @@
     <t>Thời hạn đổi trả</t>
   </si>
   <si>
-    <t>Son</t>
-  </si>
-  <si>
     <t>Mỹ phẩm</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>cái</t>
+    <t>Combo Trang Điểm Cho Môi Farmasi</t>
+  </si>
+  <si>
+    <t>Farmasi</t>
+  </si>
+  <si>
+    <t>Bộ</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,15 +540,15 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>123</v>
+        <v>1337551821419</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -557,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="1">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>7</v>
